--- a/biology/Histoire de la zoologie et de la botanique/André_Nel/André_Nel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Nel/André_Nel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Nel</t>
+          <t>André_Nel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Nel, né le 4 novembre 1959 (64 ans) à La Ciotat, est un entomologiste français et un paléoentomologiste. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Nel</t>
+          <t>André_Nel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Nel est employé au Muséum national d'histoire naturelle de Paris, depuis 1994, et est « le responsable scientifique de l’ensemble des collections d’Arthropodes terrestres et de la collection de fossiles dans l’ambre du MNHN »[1].
-Il est l'un des acteurs importants de l'enseignement en ligne novateur "INSECT"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Nel est employé au Muséum national d'histoire naturelle de Paris, depuis 1994, et est « le responsable scientifique de l’ensemble des collections d’Arthropodes terrestres et de la collection de fossiles dans l’ambre du MNHN ».
+Il est l'un des acteurs importants de l'enseignement en ligne novateur "INSECT".
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Nel</t>
+          <t>André_Nel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Nel a reçu, en 2019, pour ses 60 ans, la médaille d'honneur de l’IPS (International Palaeoentomological Society), et la revue Palaeoentomology lui a consacré un numéro spécial avec de nombreux taxons dédiés, sorti le 20 décembre 2019[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Nel a reçu, en 2019, pour ses 60 ans, la médaille d'honneur de l’IPS (International Palaeoentomological Society), et la revue Palaeoentomology lui a consacré un numéro spécial avec de nombreux taxons dédiés, sorti le 20 décembre 2019.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Nel</t>
+          <t>André_Nel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>voir sur wikispecies</t>
         </is>
